--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_11-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_11-05.xlsx
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>7:0</t>
+  </si>
+  <si>
+    <t>فرد شعر هير كونترول</t>
   </si>
   <si>
     <t>Thursday, 8 January, 2026 11:05 AM</t>
@@ -964,38 +967,64 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" ht="26.25" customHeight="1">
-      <c r="K15" s="10">
-        <v>545</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="11">
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c t="s" r="B15" s="7">
         <v>30</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c t="s" r="F16" s="12">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c t="s" r="H15" s="8">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9">
+        <v>180</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c t="s" r="N15" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="K16" s="10">
+        <v>725</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="11">
         <v>31</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c t="s" r="I16" s="14">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c t="s" r="F17" s="12">
         <v>32</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c t="s" r="I17" s="14">
+        <v>33</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="47">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1036,10 +1065,13 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:N17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
